--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_64.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_64.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -432,12 +432,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LITHMOR</t>
         </is>
       </c>
       <c r="F2">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -475,12 +475,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F3">
@@ -503,7 +503,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F4">
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -561,26 +561,542 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TRIGLUC</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MULLSUR</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SOLEIMP</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>2-RAP</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>SOLEVUL</t>
         </is>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CALLSAP</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
